--- a/analysis_Campinas/campinas_tabnet/cps2020_c.xlsx
+++ b/analysis_Campinas/campinas_tabnet/cps2020_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Idade ignorada</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Códigos para propósitos especiais</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,13 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -570,11 +579,14 @@
       </c>
       <c r="W2" t="n">
         <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -641,11 +653,14 @@
       </c>
       <c r="W3" t="n">
         <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -712,11 +727,14 @@
       </c>
       <c r="W4" t="n">
         <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -783,11 +801,14 @@
       </c>
       <c r="W5" t="n">
         <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>710</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -854,11 +875,14 @@
       </c>
       <c r="W6" t="n">
         <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -925,6 +949,157 @@
       </c>
       <c r="W7" t="n">
         <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>113</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>77</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" t="n">
+        <v>126</v>
+      </c>
+      <c r="K8" t="n">
+        <v>149</v>
+      </c>
+      <c r="L8" t="n">
+        <v>204</v>
+      </c>
+      <c r="M8" t="n">
+        <v>222</v>
+      </c>
+      <c r="N8" t="n">
+        <v>287</v>
+      </c>
+      <c r="O8" t="n">
+        <v>342</v>
+      </c>
+      <c r="P8" t="n">
+        <v>346</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>366</v>
+      </c>
+      <c r="R8" t="n">
+        <v>358</v>
+      </c>
+      <c r="S8" t="n">
+        <v>342</v>
+      </c>
+      <c r="T8" t="n">
+        <v>294</v>
+      </c>
+      <c r="U8" t="n">
+        <v>100</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>119</v>
+      </c>
+      <c r="I9" t="n">
+        <v>166</v>
+      </c>
+      <c r="J9" t="n">
+        <v>211</v>
+      </c>
+      <c r="K9" t="n">
+        <v>295</v>
+      </c>
+      <c r="L9" t="n">
+        <v>418</v>
+      </c>
+      <c r="M9" t="n">
+        <v>540</v>
+      </c>
+      <c r="N9" t="n">
+        <v>748</v>
+      </c>
+      <c r="O9" t="n">
+        <v>893</v>
+      </c>
+      <c r="P9" t="n">
+        <v>892</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>950</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1018</v>
+      </c>
+      <c r="S9" t="n">
+        <v>907</v>
+      </c>
+      <c r="T9" t="n">
+        <v>737</v>
+      </c>
+      <c r="U9" t="n">
+        <v>268</v>
+      </c>
+      <c r="V9" t="n">
+        <v>57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8594</v>
       </c>
     </row>
   </sheetData>
